--- a/data/income_statement/1digit/size/Q_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/Q_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>Q-Human health and social work activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>Q-Human health and social work activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,881 +841,996 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1008933.70028</v>
+        <v>1121844.62022</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>980474.98881</v>
+        <v>1123961.21561</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1197639.97552</v>
+        <v>1310337.47254</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1152207.41578</v>
+        <v>1283232.3488</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1159393.4155</v>
+        <v>1356320.55598</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1148361.30187</v>
+        <v>1346424.86805</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1183481.8473</v>
+        <v>1429013.29883</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1469147.76704</v>
+        <v>1722282.32582</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1705951.32825</v>
+        <v>2027862.61213</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3424841.04124</v>
+        <v>3796723.83293</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4100621.600469999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4737931.30013</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5444402.265</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>966324.66918</v>
+        <v>1071566.39868</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>942006.9769100001</v>
+        <v>1079409.48251</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1133264.94066</v>
+        <v>1238669.01746</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1086273.44043</v>
+        <v>1209545.44996</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1106977.12613</v>
+        <v>1290370.39472</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1083513.25699</v>
+        <v>1269456.11801</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1128974.007</v>
+        <v>1354916.63502</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1398782.32911</v>
+        <v>1630506.45803</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1625661.10477</v>
+        <v>1920830.10522</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3223778.47865</v>
+        <v>3562161.44886</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3877613.85497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4477426.72092</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5182182.747</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>14167.40321</v>
+        <v>14520.91283</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>7858.521400000001</v>
+        <v>8343.377039999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>10595.81737</v>
+        <v>11420.84438</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>12081.70426</v>
+        <v>13240.98606</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>10646.52358</v>
+        <v>15419.45486</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>15727.03321</v>
+        <v>18209.77198</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11734.69361</v>
+        <v>14236.82189</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10489.46263</v>
+        <v>12224.93656</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>12549.67399</v>
+        <v>17630.79551</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>55674.91233</v>
+        <v>59374.28603</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>48776.39105000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>53782.2408</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>76336.25900000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>28441.62789</v>
+        <v>35757.30871</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>30609.4905</v>
+        <v>36208.35606</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>53779.21749000001</v>
+        <v>60247.6107</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>53852.27109</v>
+        <v>60445.91278000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>41769.76579</v>
+        <v>50530.7064</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>49121.01167</v>
+        <v>58758.97806</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>42773.14668999999</v>
+        <v>59859.84192</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>59875.9753</v>
+        <v>79550.93123</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>67740.54948999999</v>
+        <v>89401.7114</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>145387.65026</v>
+        <v>175188.09804</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>174231.35445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>206722.33841</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>185883.259</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4486.167149999998</v>
+        <v>4955.7567</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2958.82536</v>
+        <v>3471.54766</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5439.52925</v>
+        <v>6135.96693</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4283.787869999999</v>
+        <v>5990.483109999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2334.63545</v>
+        <v>3524.81252</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2427.890539999999</v>
+        <v>3247.18124</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1760.11616</v>
+        <v>3033.24066</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1600.67853</v>
+        <v>2273.96869</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1654.0391</v>
+        <v>3450.76348</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4850.684300000001</v>
+        <v>7843.53412</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5685.64149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6404.96534</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>39644.952</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3643.8976</v>
+        <v>4005.4488</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2481.34882</v>
+        <v>2670.88342</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3519.23703</v>
+        <v>4031.98293</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2973.21723</v>
+        <v>3488.42696</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1562.14293</v>
+        <v>1920.70984</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1896.69146</v>
+        <v>2173.858</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1329.55646</v>
+        <v>2017.00291</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1333.60057</v>
+        <v>1780.12999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1412.77765</v>
+        <v>1721.76191</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3080.32113</v>
+        <v>5713.241390000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3542.04583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4166.94305</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>36774.773</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>752.6853400000001</v>
+        <v>799.68058</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>348.7996</v>
+        <v>671.0896799999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1816.28566</v>
+        <v>1939.86425</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>899.0732400000001</v>
+        <v>1322.17013</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>465.23624</v>
+        <v>1198.82966</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>495.69232</v>
+        <v>1037.81648</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>125.9471</v>
+        <v>709.23395</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>180.12463</v>
+        <v>285.02232</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>206.49063</v>
+        <v>222.91075</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1310.47083</v>
+        <v>1652.43915</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1463.93781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1558.30122</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1896.466</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>89.58421</v>
+        <v>150.62732</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>128.67694</v>
+        <v>129.57456</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>104.00656</v>
+        <v>164.11975</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>411.4974</v>
+        <v>1179.88602</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>307.25628</v>
+        <v>405.27302</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>35.50675999999999</v>
+        <v>35.50676</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>304.6126</v>
+        <v>307.0038</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>86.95333000000001</v>
+        <v>208.81638</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>34.77082</v>
+        <v>1506.09082</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>459.89234</v>
+        <v>477.85358</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>679.6578500000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>679.7210700000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>973.713</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1004447.53313</v>
+        <v>1116888.86352</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>977516.16345</v>
+        <v>1120489.66795</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1192200.44627</v>
+        <v>1304201.50561</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1147923.62791</v>
+        <v>1277241.86569</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1157058.78005</v>
+        <v>1352795.74346</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1145933.41133</v>
+        <v>1343177.68681</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1181721.73114</v>
+        <v>1425980.05817</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1467547.08851</v>
+        <v>1720008.35713</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1704297.28915</v>
+        <v>2024411.84865</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3419990.35694</v>
+        <v>3788880.29881</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4094935.95898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4731526.33479</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5404757.313</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>483898.7955400001</v>
+        <v>529363.9118000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>471689.03197</v>
+        <v>523393.39625</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>568143.7927100001</v>
+        <v>616265.8470900001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>546784.53162</v>
+        <v>599264.2079400001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>576934.2345700001</v>
+        <v>653120.38849</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>543650.3014699999</v>
+        <v>621833.2944100001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>563948.41471</v>
+        <v>668772.4993899999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>703124.95847</v>
+        <v>820266.8366700001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>816625.3266499998</v>
+        <v>951495.2377099998</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1517101.96655</v>
+        <v>1644212.04259</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1812182.8335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2053397.17702</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2409597.398</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>16282.32805</v>
+        <v>18310.66551</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>14551.59318</v>
+        <v>15794.47441</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>23455.33832</v>
+        <v>24688.45305</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>16650.23988</v>
+        <v>19811.85632</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>20397.15109</v>
+        <v>22036.2053</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>13221.85193</v>
+        <v>15795.74111</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13816.55049</v>
+        <v>16469.43008</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>15013.19963</v>
+        <v>25714.15904</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>18391.64039</v>
+        <v>23155.42773</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>29576.98722</v>
+        <v>31814.06944</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>35203.24339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40553.39092000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>60016.111</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>119358.92163</v>
+        <v>125467.32573</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>112149.34693</v>
+        <v>120030.38341</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>134723.07241</v>
+        <v>144887.18226</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>124541.58841</v>
+        <v>132245.45909</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>124968.78275</v>
+        <v>130873.89313</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>80806.17287999998</v>
+        <v>90798.98532999998</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>74375.66774</v>
+        <v>86115.63722</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>121382.77486</v>
+        <v>134112.0633</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>113008.405</v>
+        <v>131721.29494</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>233494.54322</v>
+        <v>252060.56949</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>240466.53731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>271527.1482000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>377761.538</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>345685.1269500001</v>
+        <v>382369.5333</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>342138.31021</v>
+        <v>384372.10555</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>398983.18757</v>
+        <v>433429.36306</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>403975.4021299999</v>
+        <v>445092.3636399999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>428923.24888</v>
+        <v>497055.70683</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>443443.23729</v>
+        <v>506833.00063</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>465056.58292</v>
+        <v>552479.9755800001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>548729.9999299999</v>
+        <v>640541.2631300001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>672678.63271</v>
+        <v>780730.71033</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1227538.39336</v>
+        <v>1329874.12171</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1506552.02401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1708648.20231</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1925127.689</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2572.41891</v>
+        <v>3216.38726</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2849.78165</v>
+        <v>3196.43288</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10982.19441</v>
+        <v>13260.84872</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1617.3012</v>
+        <v>2114.52889</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2645.05185</v>
+        <v>3154.58323</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6179.03937</v>
+        <v>8405.56734</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10699.61356</v>
+        <v>13707.45651</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>17998.98405</v>
+        <v>19899.3512</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>12546.64855</v>
+        <v>15887.80471</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>26492.04275</v>
+        <v>30463.28195</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>29961.02879</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>32668.43559</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>46692.06</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>520548.73759</v>
+        <v>587524.95172</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>505827.13148</v>
+        <v>597096.2716999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>624056.6535599999</v>
+        <v>687935.6585199999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>601139.09629</v>
+        <v>677977.6577500001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>580124.5454799999</v>
+        <v>699675.35497</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>602283.1098600001</v>
+        <v>721344.3924000001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>617773.3164300001</v>
+        <v>757207.55878</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>764422.13004</v>
+        <v>899741.5204599999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>887671.9624999999</v>
+        <v>1072916.61094</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1902888.39039</v>
+        <v>2144668.25622</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2282753.12548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2678129.15777</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2995159.915</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>334872.80089</v>
+        <v>372224.11317</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>330550.88759</v>
+        <v>378992.69932</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>394815.88322</v>
+        <v>445461.97451</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>402374.2851400001</v>
+        <v>457443.3041299999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>400092.51315</v>
+        <v>470788.17092</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>411261.1003399999</v>
+        <v>488219.36112</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>434038.0166799999</v>
+        <v>526597.75982</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>515333.57128</v>
+        <v>608231.2225499999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>591972.2593100001</v>
+        <v>705949.5456299999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1104466.48105</v>
+        <v>1230770.98547</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1333630.87057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1540059.65008</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1686214.793</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>906.70618</v>
+        <v>914.6890100000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1235.33401</v>
+        <v>1263.95161</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1622.94677</v>
+        <v>1826.50747</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1149.78727</v>
+        <v>1656.60631</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1252.78566</v>
+        <v>1549.86264</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>807.45411</v>
+        <v>926.1338800000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1073.71567</v>
+        <v>1096.90514</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1628.92846</v>
+        <v>1630.20621</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1792.03067</v>
+        <v>1793.16001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1969.70399</v>
+        <v>2226.94697</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1541.39232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1782.82938</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2438.193</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>20848.52034</v>
+        <v>22234.9504</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>24567.82436</v>
+        <v>26667.38578</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>27493.95555</v>
+        <v>29507.56509</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>29056.20128999999</v>
+        <v>31241.80637999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>22790.94235</v>
+        <v>25603.3476</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>21353.43625</v>
+        <v>24809.73955</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>22998.52288</v>
+        <v>28379.60953</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>28846.39477</v>
+        <v>33148.66138</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>37613.98441999999</v>
+        <v>44467.16533</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>70725.81846000001</v>
+        <v>76478.96295</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>78802.69807</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>86923.81381000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>87026.27099999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>313117.57437</v>
+        <v>349074.47376</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>304747.72922</v>
+        <v>351061.36193</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>365698.9809</v>
+        <v>414127.9019499999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>372168.29658</v>
+        <v>424544.89144</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>376048.78514</v>
+        <v>443634.96068</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>389100.20998</v>
+        <v>462483.48769</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>409965.77813</v>
+        <v>497121.24515</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>484858.24805</v>
+        <v>573452.35496</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>552566.24422</v>
+        <v>659689.22029</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1031770.9586</v>
+        <v>1152065.07555</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1253286.78018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1451353.00689</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1596750.329</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>185675.9367</v>
+        <v>215300.83855</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>175276.24389</v>
+        <v>218103.57238</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>229240.77034</v>
+        <v>242473.68401</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>198764.81115</v>
+        <v>220534.35362</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>180032.03233</v>
+        <v>228887.18405</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>191022.00952</v>
+        <v>233125.03128</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>183735.29975</v>
+        <v>230609.79896</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>249088.55876</v>
+        <v>291510.29791</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>295699.7031899999</v>
+        <v>366967.06531</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>798421.9093399999</v>
+        <v>913897.27075</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>949122.2549100001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1138069.50769</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1308945.122</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11460.30258</v>
+        <v>37593.08809</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>12285.53463</v>
+        <v>26804.08736</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>12861.53637</v>
+        <v>31086.40813</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>13117.18448</v>
+        <v>41925.84312999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9587.057250000002</v>
+        <v>32207.02383999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>9674.63241</v>
+        <v>39507.52512</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12977.94977</v>
+        <v>60071.99266</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>19973.74583</v>
+        <v>71197.09282999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>12694.51289</v>
+        <v>84187.66519000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>63516.97703</v>
+        <v>292576.31483</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>50156.38735000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>303537.57491</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>235293.438</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>424.40109</v>
+        <v>15468.69509</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>526.91053</v>
+        <v>3014.3858</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>636.4640900000001</v>
+        <v>1704.56208</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>394.83095</v>
+        <v>3101.78323</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>309.52608</v>
+        <v>566.2183100000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>201.46948</v>
+        <v>3097.21159</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>259.07544</v>
+        <v>1509.22557</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>90.68499</v>
+        <v>1488.4825</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1.36277</v>
+        <v>2961.0932</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2023.75067</v>
+        <v>10291.73535</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3234.22156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>8888.21574</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>13705.008</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1.49915</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>481.43467</v>
+        <v>562.2838399999999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1.19458</v>
+        <v>6.74451</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>19.15494</v>
@@ -1829,220 +1845,250 @@
         <v>104.8247</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>114.30438</v>
+        <v>3181.08648</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>102.65877</v>
+        <v>905.57294</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>542.38532</v>
+        <v>1356.51578</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>472.71404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>763.82103</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>296.701</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3777.17726</v>
+        <v>6340.877599999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4021.28733</v>
+        <v>6611.254859999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4044.3029</v>
+        <v>8143.886</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4709.86393</v>
+        <v>11743.08423</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3855.75868</v>
+        <v>10821.4424</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4025.3547</v>
+        <v>11726.69132</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4209.65273</v>
+        <v>16106.86361</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4351.68137</v>
+        <v>20384.4136</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4646.747</v>
+        <v>46487.96633</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>16059.58554</v>
+        <v>86202.33056</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>19650.27107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>46362.14538</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>43166.336</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>622.97947</v>
+        <v>623.1177700000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>99.94702000000001</v>
+        <v>102.10528</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>197.14406</v>
+        <v>200.85631</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>249.53681</v>
+        <v>286.49704</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>29.48394</v>
+        <v>92.72798000000002</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>59.71556</v>
+        <v>69.06175</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>68.60292999999999</v>
+        <v>68.89991999999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>27.00564</v>
+        <v>27.00764</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>12.72354</v>
+        <v>52.41923999999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>124.18119</v>
+        <v>293.91644</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>14.52592</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>184.77236</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>71.70099999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>265.40353</v>
+        <v>266.36325</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>560.6395600000001</v>
+        <v>594.26626</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>66.30578</v>
+        <v>68.07078</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>58.86855000000001</v>
+        <v>209.01975</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>51.02334</v>
+        <v>54.28652</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>54.71508</v>
+        <v>346.88343</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>13.17343</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>75.62044999999999</v>
+        <v>75.84491</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>50.46192</v>
+        <v>78.92369000000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4784.89002</v>
+        <v>4793.809230000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>160.43562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>179.81216</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>246.599</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>599.931</v>
+        <v>746.8577700000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>293.3815</v>
+        <v>482.02635</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>785.41837</v>
+        <v>1396.17953</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>447.97536</v>
+        <v>2867.56589</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>395.45449</v>
+        <v>606.19955</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>665.29776</v>
+        <v>1204.53562</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>369.5106</v>
+        <v>975.6170099999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>262.49522</v>
+        <v>1023.23934</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>244.22231</v>
+        <v>1004.50351</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>781.6784500000001</v>
+        <v>1968.81239</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1289.5574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10480.88084</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>16781.182</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2102.84596</v>
+        <v>4135.00632</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1938.31801</v>
+        <v>4987.71803</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3133.602730000001</v>
+        <v>5656.824420000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1579.93125</v>
+        <v>5947.630630000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1937.56613</v>
+        <v>5006.514609999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1308.47303</v>
+        <v>6165.617939999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3163.039749999999</v>
+        <v>15013.78423</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3156.47912</v>
+        <v>15752.4009</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2880.19652</v>
+        <v>13269.18985</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>29751.11851</v>
+        <v>164748.04824</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11391.38636</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>209587.56697</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>98237.781</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>27.8199</v>
+        <v>67.81989999999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>4.26904</v>
@@ -2060,7 +2106,7 @@
         <v>3.78958</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>4.22618</v>
+        <v>14.15288</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>12.13256</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>113.84773</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>86.387</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>201.41453</v>
@@ -2087,16 +2138,16 @@
         <v>28.99035</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>17.23607</v>
+        <v>17.92807</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>65.15067999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>111.50905</v>
+        <v>117.37955</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>13.05133</v>
+        <v>511.45933</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>38.3612</v>
@@ -2105,262 +2156,297 @@
         <v>32.54369</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>34.10001999999999</v>
+        <v>35.30802</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>2.15197</v>
+        <v>4.24321</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>1.05251</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3436.83069</v>
+        <v>9741.436709999998</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4330.35662</v>
+        <v>10416.78755</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3929.8455</v>
+        <v>13841.33414</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5522.59611</v>
+        <v>17616.68084</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2780.88789</v>
+        <v>14826.40727</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3039.84144</v>
+        <v>16079.35011</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4747.48281</v>
+        <v>26227.09011</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>11850.79841</v>
+        <v>29219.94121</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4534.65296</v>
+        <v>19205.30133</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9381.59798</v>
+        <v>22851.26625</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>13828.37514</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>26975.46019</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>62701.389</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>7235.88306</v>
+        <v>11093.45203</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5675.107899999999</v>
+        <v>9114.772709999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>14943.37582</v>
+        <v>19379.99409</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6539.04803</v>
+        <v>11846.37029</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6876.730659999999</v>
+        <v>11381.33217</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>8982.021119999999</v>
+        <v>15663.54157</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4885.31936</v>
+        <v>15660.91491</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10875.89277</v>
+        <v>27763.9157</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7405.672820000001</v>
+        <v>27796.63145</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>28432.6405</v>
+        <v>178234.66714</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>15092.44536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>319183.93745</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>136735.959</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>383.89449</v>
+        <v>447.35234</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>603.84964</v>
+        <v>692.4460900000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>930.7279900000001</v>
+        <v>980.5001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>543.04949</v>
+        <v>1442.49012</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>652.58578</v>
+        <v>810.34132</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1086.22274</v>
+        <v>1150.81005</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>547.1529700000001</v>
+        <v>1105.65219</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>545.5791999999999</v>
+        <v>590.9666799999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1047.02075</v>
+        <v>1074.19526</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1264.23235</v>
+        <v>1463.07264</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>963.77936</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1550.9179</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1732.569</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>890.82592</v>
+        <v>1119.47123</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>500.02668</v>
+        <v>687.87121</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2226.53454</v>
+        <v>2245.16858</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>812.0971599999999</v>
+        <v>862.9376500000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>405.2884</v>
+        <v>1183.56857</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1223.30219</v>
+        <v>3474.88217</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>266.40171</v>
+        <v>1442.89296</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5538.73441</v>
+        <v>5792.57585</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1335.62044</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1346.50521</v>
+        <v>1908.58382</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1828.65861</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3645.59941</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1945.284</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>77.00376000000001</v>
+        <v>77.96185000000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>92.68141</v>
+        <v>101.99353</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>79.90105</v>
+        <v>91.43633</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>104.37066</v>
+        <v>126.9916</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>105.65503</v>
+        <v>122.08183</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>177.74406</v>
+        <v>180.32434</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>497.75704</v>
+        <v>540.46158</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>212.40763</v>
+        <v>256.21843</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>24.53662</v>
+        <v>3104.30916</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>461.77754</v>
+        <v>6430.43203</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>331.14452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1475.57317</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>6666.815</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2535.47508</v>
+        <v>5317.519740000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2001.14032</v>
+        <v>4548.77902</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3146.57145</v>
+        <v>7404.213239999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1534.72597</v>
+        <v>3969.40011</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1872.83274</v>
+        <v>4845.38522</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1048.83426</v>
+        <v>3964.38546</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1499.17555</v>
+        <v>10091.02846</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1449.35714</v>
+        <v>16244.12013</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1677.62184</v>
+        <v>17600.44935</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>18409.22033</v>
+        <v>159897.33696</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6638.216070000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>303979.33797</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>110331.546</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>21.38067</v>
+        <v>53.38066999999999</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>7.15141</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>24.88221</v>
+        <v>28.34647</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>13.53837</v>
@@ -2369,7 +2455,7 @@
         <v>9.81677</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>12.26018</v>
+        <v>12.26065</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>5.59616</v>
@@ -2384,25 +2470,30 @@
         <v>5.99963</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>11.83021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>21.30172</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>76.23034</v>
+        <v>76.43680999999999</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>38.74049000000001</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.008399999999999998</v>
+        <v>2.46854</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>21.50664</v>
+        <v>46.85503</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>24.05948</v>
+        <v>24.05951</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0.00155</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.26546</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3251.0728</v>
+        <v>4001.32939</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2431.51795</v>
+        <v>3037.79096</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8534.750180000001</v>
+        <v>8627.86083</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3509.75974</v>
+        <v>5384.15741</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3830.55194</v>
+        <v>4410.13846</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5433.657689999999</v>
+        <v>6880.878900000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2045.17645</v>
+        <v>2451.22405</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3124.80186</v>
+        <v>4875.022079999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3311.29385</v>
+        <v>4672.47792</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6944.90152</v>
+        <v>8529.238139999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5318.55113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8510.94182</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>16049.035</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10754.53038</v>
+        <v>17300.27772</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>10147.70511</v>
+        <v>17351.90648</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>19415.78343</v>
+        <v>27758.31976</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12717.23766</v>
+        <v>22172.20588</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>13110.08753</v>
+        <v>24641.72104</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>13189.68411</v>
+        <v>45551.30925</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>14494.39295</v>
+        <v>39089.47102</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>16888.33732</v>
+        <v>38700.01589</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>17838.63539</v>
+        <v>50998.62532999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>37806.90330999999</v>
+        <v>84485.29231</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>43122.96161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>136813.75497</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>195764.785</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>10084.81724</v>
+        <v>15352.28218</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>9344.88379</v>
+        <v>15587.35246</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>10158.03002</v>
+        <v>17838.77721</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>11968.53926</v>
+        <v>21044.19735</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>11170.29062</v>
+        <v>22051.62735</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11262.09833</v>
+        <v>41729.05933</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>12698.16718</v>
+        <v>35222.79985</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>16099.9328</v>
+        <v>36234.0026</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>16162.52255</v>
+        <v>47568.14608</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>35715.04588000001</v>
+        <v>76326.78762999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>41330.18702999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>125105.68863</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>190225.974</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>669.71314</v>
+        <v>1947.99554</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>802.82132</v>
+        <v>1764.55402</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>9257.753409999998</v>
+        <v>9919.542549999998</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>748.6984</v>
+        <v>1128.00853</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1939.79691</v>
+        <v>2590.093690000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1927.58578</v>
+        <v>3822.24992</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1796.22577</v>
+        <v>3866.67117</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>788.4045199999999</v>
+        <v>2466.01329</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1676.11284</v>
+        <v>3430.47925</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2091.85743</v>
+        <v>8158.50468</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1792.77458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>11708.06634</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5538.811</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>179145.82584</v>
+        <v>224500.19689</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>171738.96551</v>
+        <v>218440.98055</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>207743.14746</v>
+        <v>226421.77829</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>192625.70994</v>
+        <v>228441.62058</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>169632.27139</v>
+        <v>225071.15468</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>178524.9367</v>
+        <v>211417.70558</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>177333.53721</v>
+        <v>235931.40569</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>241298.0745</v>
+        <v>296243.45915</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>283149.9078699999</v>
+        <v>372359.47372</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>795699.34256</v>
+        <v>943753.6261300001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>941063.23529</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>985609.3901800001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1211737.816</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>11729.07195</v>
+        <v>14209.22361</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>13604.44284</v>
+        <v>17210.63039000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>14734.85432</v>
+        <v>23168.52032</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>21373.80929</v>
+        <v>30970.61458</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>19071.75592</v>
+        <v>42222.84091000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>18234.66012</v>
+        <v>42212.0457</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>20091.34543</v>
+        <v>39866.31296</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>64865.11077</v>
+        <v>81577.68974000002</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>24762.09568</v>
+        <v>199057.26627</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>43019.36913</v>
+        <v>67254.24096000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>61789.90874</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>125813.81618</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>113577.397</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>315.11369</v>
+        <v>389.93381</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>205.04513</v>
+        <v>207.6885</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>166.03391</v>
+        <v>188.29239</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>364.2357</v>
+        <v>471.31963</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>242.61009</v>
+        <v>245.36514</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>690.04535</v>
+        <v>1935.52782</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>587.58307</v>
+        <v>815.3733</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>136.43166</v>
+        <v>240.82824</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>178.29917</v>
+        <v>338.70195</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>35.68057</v>
+        <v>494.06064</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>569.27424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>700.98828</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4856.21</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>11413.95826</v>
+        <v>13819.2898</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>13399.39771</v>
+        <v>17002.94189</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>14568.82041</v>
+        <v>22980.22793</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>21009.57359</v>
+        <v>30499.29495</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>18829.14583</v>
+        <v>41977.47577</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>17544.61477</v>
+        <v>40276.51787999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>19503.76236</v>
+        <v>39050.93966</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>64728.67911</v>
+        <v>81336.86150000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>24583.79651</v>
+        <v>198718.56432</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>42983.68856</v>
+        <v>66760.18032</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>61220.6345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>125112.8279</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>108721.187</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>13124.38538</v>
+        <v>21963.39852</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>17516.93784</v>
+        <v>20627.43228</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>363205.9357399999</v>
+        <v>428997.3594900001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>28496.1183</v>
+        <v>55818.16998000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>20659.60811</v>
+        <v>38438.92374000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>150451.23382</v>
+        <v>199075.63503</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>18834.85621</v>
+        <v>49524.72994</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>266277.64506</v>
+        <v>370396.87497</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>27186.98457</v>
+        <v>45822.83605999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>311255.67817</v>
+        <v>383902.8084</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>66168.2488</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>111674.94764</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>161972.211</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>938.22685</v>
+        <v>940.45978</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>304.01504</v>
+        <v>645.49298</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>400.8150100000001</v>
+        <v>415.02991</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>309.46764</v>
+        <v>12841.94123</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>224.3259</v>
+        <v>1510.87474</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>79.03399</v>
+        <v>2507.24381</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>197.27826</v>
+        <v>10359.49769</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>385.81263</v>
+        <v>3564.35723</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>318.67154</v>
+        <v>684.5447999999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>591.4017</v>
+        <v>1091.1305</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>601.92324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>744.9026899999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1120.157</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1411.06816</v>
+        <v>1494.98762</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1607.23101</v>
+        <v>1993.18392</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3267.85691</v>
+        <v>3512.53508</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1179.5329</v>
+        <v>2204.44155</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1149.8154</v>
+        <v>1232.67114</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1029.51722</v>
+        <v>1251.66787</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>720.84211</v>
+        <v>2272.02769</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>793.17696</v>
+        <v>1456.09777</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1006.23383</v>
+        <v>1146.04732</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3044.44581</v>
+        <v>3922.8011</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2304.52069</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2660.33373</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1344.158</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10775.09037</v>
+        <v>19527.95112</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>15605.69179</v>
+        <v>17988.75538</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>359537.2638199999</v>
+        <v>425069.7944999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>27007.11776</v>
+        <v>40771.7872</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>19285.46681</v>
+        <v>35695.37786</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>149342.68261</v>
+        <v>195316.72335</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17916.73584</v>
+        <v>36893.20456000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>265098.6554700001</v>
+        <v>365376.41997</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>25862.0792</v>
+        <v>43992.24394</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>307619.83066</v>
+        <v>378888.8768</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>63261.80487000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>108269.71122</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>159507.896</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>177750.51241</v>
+        <v>216746.02198</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>167826.47051</v>
+        <v>215024.17866</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-140727.93396</v>
+        <v>-179407.06088</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>185503.40093</v>
+        <v>203594.06518</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>168044.4192000001</v>
+        <v>228855.07185</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>46308.36299999999</v>
+        <v>54554.11624999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>178590.02643</v>
+        <v>226272.98871</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>39885.54020999999</v>
+        <v>7424.273919999987</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>280725.0189799999</v>
+        <v>525593.9039299999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>527463.0335200001</v>
+        <v>627105.0586900001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>936684.89523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>999748.2587199999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1163343.002</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>38347.0471</v>
+        <v>45854.77750000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>37602.36389999999</v>
+        <v>47153.08943</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>45686.31309</v>
+        <v>52565.49212</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>42998.78893</v>
+        <v>51141.44464</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>41086.81765</v>
+        <v>55003.43943999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>40914.63095999999</v>
+        <v>53562.71623000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>43940.20943</v>
+        <v>62486.33616000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>55681.60309</v>
+        <v>74171.35467</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>64921.44342000001</v>
+        <v>90932.63387999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>175044.2157</v>
+        <v>213527.55599</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>215355.1525</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>268117.67045</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>310064.987</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>139403.46531</v>
+        <v>170891.24448</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>130224.10661</v>
+        <v>167871.08923</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-186414.24705</v>
+        <v>-231972.553</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>142504.612</v>
+        <v>152452.62054</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>126957.60155</v>
+        <v>173851.63241</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5393.732040000001</v>
+        <v>991.4000199999984</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>134649.817</v>
+        <v>163786.65255</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-15796.06288</v>
+        <v>-66747.08074999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>215803.57556</v>
+        <v>434661.27005</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>352418.81782</v>
+        <v>413577.5027</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>721329.7427300001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>731630.5882699999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>853278.015</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>7875</v>
+        <v>8209</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>7826</v>
+        <v>8229</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7918</v>
+        <v>8290</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7672</v>
+        <v>8111</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>7332</v>
+        <v>7932</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6957</v>
+        <v>7591</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6881</v>
+        <v>7656</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7262</v>
+        <v>8106</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>8284</v>
+        <v>9185</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>10753</v>
+        <v>11864</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>11837</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>13696</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>15443</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>